--- a/testcases/template/报表.xlsx
+++ b/testcases/template/报表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodes\sr_pro\starriver_pro_web\testcases\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+  <si>
+    <t>StarRiver 报表测试用例</t>
+  </si>
   <si>
     <t>测试结果</t>
   </si>
@@ -118,12 +121,33 @@
     <t>Bug#</t>
   </si>
   <si>
+    <t>report-statistics-001</t>
+  </si>
+  <si>
+    <t>统计:能耗</t>
+  </si>
+  <si>
+    <t>页面初始化</t>
+  </si>
+  <si>
+    <t>正常显示</t>
+  </si>
+  <si>
     <t>计数项:测试编号</t>
   </si>
   <si>
     <t>列标签</t>
   </si>
   <si>
+    <t>report-statistics-002</t>
+  </si>
+  <si>
+    <t>选择时间</t>
+  </si>
+  <si>
+    <t>选择开始时间，选择结束时间</t>
+  </si>
+  <si>
     <t>行标签</t>
   </si>
   <si>
@@ -133,65 +157,169 @@
     <t>总计</t>
   </si>
   <si>
-    <t>StarRiver 报表测试用例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>report-statistics-001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>report-statistics-002</t>
-  </si>
-  <si>
     <t>report-statistics-003</t>
   </si>
   <si>
+    <t>选择统计参数下拉框</t>
+  </si>
+  <si>
+    <t>显示 "按域” 和 "按设备“下拉列表</t>
+  </si>
+  <si>
     <t>report-statistics-004</t>
   </si>
   <si>
+    <t>选择统计参数：按域</t>
+  </si>
+  <si>
+    <t>域下拉框显示当前所有的可选域</t>
+  </si>
+  <si>
     <t>report-statistics-005</t>
   </si>
   <si>
+    <t>选择统计参数：按域：选择域</t>
+  </si>
+  <si>
+    <t>选中并显示所选域</t>
+  </si>
+  <si>
     <t>report-statistics-006</t>
   </si>
   <si>
+    <t>选择统计参数：按设备</t>
+  </si>
+  <si>
+    <t>显示选择设备输入框</t>
+  </si>
+  <si>
     <t>report-statistics-007</t>
   </si>
   <si>
+    <t>选择统计参数：按设备：选择设备面板</t>
+  </si>
+  <si>
+    <t>显示可选域下拉框，以及默认选中域的设备列表</t>
+  </si>
+  <si>
     <t>report-statistics-008</t>
   </si>
   <si>
+    <t>选择统计参数：按设备：选择设备面板：选择域</t>
+  </si>
+  <si>
+    <t>显示所选域的设备列表</t>
+  </si>
+  <si>
     <t>report-statistics-009</t>
   </si>
   <si>
+    <t>选择统计参数：按设备：选择设备面板：搜索设备</t>
+  </si>
+  <si>
+    <t>显示被搜索的设备</t>
+  </si>
+  <si>
     <t>report-statistics-010</t>
   </si>
   <si>
+    <t>选择统计参数：按设备：选择设备面板：设备列表分页</t>
+  </si>
+  <si>
+    <t>点击跳转至该分页设备列表</t>
+  </si>
+  <si>
     <t>report-statistics-011</t>
   </si>
   <si>
+    <t>选择统计参数：按设备：选择设备面板：选中设备</t>
+  </si>
+  <si>
+    <t>选中单一设备，设备输入框显示该设备</t>
+  </si>
+  <si>
     <t>report-statistics-012</t>
   </si>
   <si>
     <t>report-statistics-013</t>
   </si>
   <si>
+    <t>统计:照明</t>
+  </si>
+  <si>
     <t>report-statistics-014</t>
   </si>
   <si>
-    <t>统计:能耗</t>
-  </si>
-  <si>
-    <t>统计:能耗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>选择域下拉框</t>
+  </si>
+  <si>
+    <t>显示可选域列表，</t>
+  </si>
+  <si>
+    <t>report-statistics-015</t>
+  </si>
+  <si>
+    <t>亮灯率统计面板</t>
+  </si>
+  <si>
+    <t>正确显示数据及亮灯率饼状图</t>
+  </si>
+  <si>
+    <t>report-statistics-016</t>
+  </si>
+  <si>
+    <t>故障率统计面板</t>
+  </si>
+  <si>
+    <t>正确显示数据及故障率饼状图</t>
+  </si>
+  <si>
+    <t>report-statistics-017</t>
+  </si>
+  <si>
+    <t>切换选中域</t>
+  </si>
+  <si>
+    <t>黄涛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试用例</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>report-statistics-018</t>
+  </si>
+  <si>
+    <t>点击应用，显示图表（数据为空）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击应用，显示图表（有返回数据）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据返回数据更新图表。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示图表坐标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据返回数据更新图表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +351,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="等线"/>
@@ -244,25 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -330,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,13 +471,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,26 +502,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,6 +524,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +554,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor theme="0" tint="-0.14990691854609822"/>
         </patternFill>
       </fill>
     </dxf>
@@ -598,124 +735,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -733,7 +752,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Success</c:v>
+                  <c:v>(空白)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -809,148 +828,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>报表!$J$4:$J$6</c:f>
+              <c:f>报表!$J$4:$J$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>(空白)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>统计:能耗</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>统计:照明</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>报表!$K$4:$K$6</c:f>
+              <c:f>报表!$K$4:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-072F-4FF0-B1B2-5230BD674595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>报表!$L$2:$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(空白)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>报表!$J$4:$J$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>(空白)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>统计:能耗</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>报表!$L$4:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EEC4-4450-A17B-182858BB066B}"/>
+              <c16:uniqueId val="{00000000-F17E-4EA8-84AD-D1BCF7ED8016}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1779,12 +1689,12 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>13970</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>318770</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>814070</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1827,7 +1737,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ccc" refreshedDate="43187.410750810188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ccc" refreshedDate="43192.345116550925" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="报表"/>
   </cacheSource>
@@ -1836,8 +1746,9 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="功能" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="11">
         <s v="统计:能耗"/>
+        <s v="统计:照明"/>
         <m/>
         <s v="文字属性" u="1"/>
         <s v="图片属性" u="1"/>
@@ -1850,17 +1761,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="测试目标/步骤" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="期望" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="测试结果" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Success"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
         <s v="Skip" u="1"/>
         <s v="Failed" u="1"/>
+        <s v="Success" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Bug#" numFmtId="0">
@@ -1876,525 +1787,533 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="66">
   <r>
     <s v="report-statistics-001"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <s v="页面初始化"/>
+    <s v="正常显示"/>
     <x v="0"/>
     <m/>
   </r>
   <r>
     <s v="report-statistics-002"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <s v="选择时间"/>
+    <s v="选择开始时间，选择结束时间"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-003"/>
+    <x v="0"/>
+    <s v="选择统计参数下拉框"/>
+    <s v="显示 &quot;按域” 和 &quot;按设备“下拉列表"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-004"/>
+    <x v="0"/>
+    <s v="选择统计参数：按域"/>
+    <s v="域下拉框显示当前所有的可选域"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-005"/>
+    <x v="0"/>
+    <s v="选择统计参数：按域：选择域"/>
+    <s v="选中并显示所选域"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-006"/>
+    <x v="0"/>
+    <s v="选择统计参数：按设备"/>
+    <s v="显示选择设备输入框"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-007"/>
+    <x v="0"/>
+    <s v="选择统计参数：按设备：选择设备面板"/>
+    <s v="显示可选域下拉框，以及默认选中域的设备列表"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-008"/>
+    <x v="0"/>
+    <s v="选择统计参数：按设备：选择设备面板：选择域"/>
+    <s v="显示所选域的设备列表"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-009"/>
+    <x v="0"/>
+    <s v="选择统计参数：按设备：选择设备面板：搜索设备"/>
+    <s v="显示被搜索的设备"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-010"/>
+    <x v="0"/>
+    <s v="选择统计参数：按设备：选择设备面板：设备列表分页"/>
+    <s v="点击跳转至该分页设备列表"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-011"/>
+    <x v="0"/>
+    <s v="选择统计参数：按设备：选择设备面板：选中设备"/>
+    <s v="选中单一设备，设备输入框显示该设备"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-012"/>
+    <x v="0"/>
+    <s v="点击应用，显示图表（数据为空）"/>
+    <s v="正常显示图表坐标"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-013"/>
+    <x v="0"/>
+    <s v="点击应用，显示图表（有返回数据）"/>
+    <s v="根据返回数据更新图表。"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-014"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-003"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="页面初始化"/>
+    <s v="正常显示"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-015"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-004"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="选择域下拉框"/>
+    <s v="显示可选域列表，"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-016"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-005"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="亮灯率统计面板"/>
+    <s v="正确显示数据及亮灯率饼状图"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-017"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-006"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="故障率统计面板"/>
+    <s v="正确显示数据及故障率饼状图"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="report-statistics-018"/>
     <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-007"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-008"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-009"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-010"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-011"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-012"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-013"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-014"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <x v="1"/>
+    <s v="切换选中域"/>
+    <s v="根据返回数据更新图表（暂无API)"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -2402,21 +2321,22 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J2:M6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="J2:L7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" x="1"/>
+      <items count="12">
         <item sd="0" m="1" x="3"/>
-        <item sd="0" m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
+        <item sd="0" x="2"/>
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
         <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2424,10 +2344,10 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
         <item m="1" x="3"/>
-        <item m="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2436,12 +2356,15 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -2450,10 +2373,7 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="3">
-    <i>
-      <x v="2"/>
-    </i>
+  <colItems count="2">
     <i>
       <x v="3"/>
     </i>
@@ -2464,7 +2384,7 @@
   <dataFields count="1">
     <dataField name="计数项:测试编号" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2472,7 +2392,7 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2484,7 +2404,7 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2496,27 +2416,6 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -2796,7 +2695,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2810,167 +2709,175 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="I1" s="22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13">
+      <c r="I2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="17">
         <v>43179</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13">
+      <c r="I3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="17">
         <v>43182</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="J4" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>43187</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>22</v>
       </c>
+      <c r="J5" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="12">
+        <v>43189</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2978,7 +2885,7 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2986,27 +2893,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="45.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="15.625"/>
-    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.125"/>
     <col min="16" max="16" width="10.875" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
@@ -3016,522 +2923,612 @@
     <col min="21" max="21" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="L5" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="J3" s="18" t="s">
+      <c r="J6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="9">
+        <v>18</v>
+      </c>
+      <c r="L7" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="J4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="J5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19">
-        <v>13</v>
-      </c>
-      <c r="M5" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="J6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
-        <v>13</v>
-      </c>
-      <c r="M6" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Skip"</formula>
@@ -3553,7 +3550,7 @@
           <x14:formula1>
             <xm:f>首页!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1532</xm:sqref>
+          <xm:sqref>E1:E1533</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/testcases/template/报表.xlsx
+++ b/testcases/template/报表.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCodes\sr_pro\starriver_pro_web\testcases\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="报表" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="测试分析">OFFSET('[1]数据源 '!$A$1,0,0,COUNTA('[1]数据源 '!$A:$A),7)</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>StarRiver 报表测试用例</t>
   </si>
@@ -103,6 +98,24 @@
     <t>***</t>
   </si>
   <si>
+    <t>黄涛</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
+  </si>
+  <si>
+    <t>添加测试用例</t>
+  </si>
+  <si>
+    <t>0.12.0</t>
+  </si>
+  <si>
+    <t>更新模板</t>
+  </si>
+  <si>
+    <t>更新测试用例</t>
+  </si>
+  <si>
     <t>前提条件</t>
   </si>
   <si>
@@ -142,10 +155,10 @@
     <t>report-statistics-002</t>
   </si>
   <si>
-    <t>选择时间</t>
-  </si>
-  <si>
-    <t>选择开始时间，选择结束时间</t>
+    <t>选择时间：选择开始时间</t>
+  </si>
+  <si>
+    <t>弹出时间选择面板，选择开始时间</t>
   </si>
   <si>
     <t>行标签</t>
@@ -160,166 +173,98 @@
     <t>report-statistics-003</t>
   </si>
   <si>
-    <t>选择统计参数下拉框</t>
-  </si>
-  <si>
-    <t>显示 "按域” 和 "按设备“下拉列表</t>
+    <t>选择时间：选择结束时间</t>
+  </si>
+  <si>
+    <t>弹出时间选择面板，选择结束时间</t>
   </si>
   <si>
     <t>report-statistics-004</t>
   </si>
   <si>
-    <t>选择统计参数：按域</t>
-  </si>
-  <si>
-    <t>域下拉框显示当前所有的可选域</t>
+    <t>统计参数：选择域下拉列表：初始化</t>
+  </si>
+  <si>
+    <t>显示当前所有可选域的下拉列表</t>
   </si>
   <si>
     <t>report-statistics-005</t>
   </si>
   <si>
-    <t>选择统计参数：按域：选择域</t>
-  </si>
-  <si>
-    <t>选中并显示所选域</t>
+    <t>统计参数：选择域下拉列表：切换选中域</t>
+  </si>
+  <si>
+    <t>正确切换选中域</t>
+  </si>
+  <si>
+    <t>统计:照明</t>
   </si>
   <si>
     <t>report-statistics-006</t>
   </si>
   <si>
-    <t>选择统计参数：按设备</t>
-  </si>
-  <si>
-    <t>显示选择设备输入框</t>
+    <t>点击应用（返回数据为空）</t>
+  </si>
+  <si>
+    <t>显示默认图表并全局提示返回数据为空</t>
   </si>
   <si>
     <t>report-statistics-007</t>
   </si>
   <si>
-    <t>选择统计参数：按设备：选择设备面板</t>
-  </si>
-  <si>
-    <t>显示可选域下拉框，以及默认选中域的设备列表</t>
+    <t>点击应用（返回数据不为空）</t>
+  </si>
+  <si>
+    <t>根据返回数据更新图表</t>
   </si>
   <si>
     <t>report-statistics-008</t>
   </si>
   <si>
-    <t>选择统计参数：按设备：选择设备面板：选择域</t>
-  </si>
-  <si>
-    <t>显示所选域的设备列表</t>
-  </si>
-  <si>
     <t>report-statistics-009</t>
   </si>
   <si>
-    <t>选择统计参数：按设备：选择设备面板：搜索设备</t>
-  </si>
-  <si>
-    <t>显示被搜索的设备</t>
+    <t>选择域下拉列表：初始化</t>
   </si>
   <si>
     <t>report-statistics-010</t>
   </si>
   <si>
-    <t>选择统计参数：按设备：选择设备面板：设备列表分页</t>
-  </si>
-  <si>
-    <t>点击跳转至该分页设备列表</t>
+    <t>亮灯率统计面板</t>
+  </si>
+  <si>
+    <t>显示选中域的设备数据及亮灯率饼状图</t>
   </si>
   <si>
     <t>report-statistics-011</t>
   </si>
   <si>
-    <t>选择统计参数：按设备：选择设备面板：选中设备</t>
-  </si>
-  <si>
-    <t>选中单一设备，设备输入框显示该设备</t>
+    <t>故障率统计面板</t>
+  </si>
+  <si>
+    <t>显示选中域的设备数据及故障率饼状图</t>
   </si>
   <si>
     <t>report-statistics-012</t>
   </si>
   <si>
-    <t>report-statistics-013</t>
-  </si>
-  <si>
-    <t>统计:照明</t>
-  </si>
-  <si>
-    <t>report-statistics-014</t>
-  </si>
-  <si>
-    <t>选择域下拉框</t>
-  </si>
-  <si>
-    <t>显示可选域列表，</t>
-  </si>
-  <si>
-    <t>report-statistics-015</t>
-  </si>
-  <si>
-    <t>亮灯率统计面板</t>
-  </si>
-  <si>
-    <t>正确显示数据及亮灯率饼状图</t>
-  </si>
-  <si>
-    <t>report-statistics-016</t>
-  </si>
-  <si>
-    <t>故障率统计面板</t>
-  </si>
-  <si>
-    <t>正确显示数据及故障率饼状图</t>
-  </si>
-  <si>
-    <t>report-statistics-017</t>
-  </si>
-  <si>
-    <t>切换选中域</t>
-  </si>
-  <si>
-    <t>黄涛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0.2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加测试用例</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>report-statistics-018</t>
-  </si>
-  <si>
-    <t>点击应用，显示图表（数据为空）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击应用，显示图表（有返回数据）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据返回数据更新图表。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示图表坐标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据返回数据更新图表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>选择域下拉列表：切换选中域</t>
+  </si>
+  <si>
+    <t>根据返回数据更新两个面板的数据及饼状图</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,21 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="等线"/>
@@ -388,21 +318,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +475,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -459,11 +705,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,14 +966,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,42 +988,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <font>
+        <strike val="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9"/>
+          <bgColor theme="0" tint="-0.149906918546098"/>
         </patternFill>
       </fill>
     </dxf>
@@ -549,12 +1072,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,22 +1082,19 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFD8787"/>
+      <color rgb="00FD8787"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -595,148 +1112,6 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:alpha val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:alpha val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -796,7 +1171,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -809,6 +1183,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -850,7 +1225,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -858,11 +1233,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F17E-4EA8-84AD-D1BCF7ED8016}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -918,7 +1288,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509071896"/>
@@ -965,6 +1334,25 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="509071568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -979,6 +1367,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1009,7 +1398,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1054,7 +1442,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1683,34 +2070,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>13970</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>623570</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>814070</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1080770</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8996045" y="1895475"/>
+        <a:ext cx="4352925" cy="2379345"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1724,7 +2105,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="数据源 "/>
@@ -1737,13 +2118,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ccc" refreshedDate="43192.345116550925" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="66">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43194.4428935185" refreshedBy="uid12403" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="报表"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="测试编号" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="13">
+        <s v="report-statistics-001"/>
+        <s v="report-statistics-002"/>
+        <s v="report-statistics-003"/>
+        <s v="report-statistics-004"/>
+        <s v="report-statistics-005"/>
+        <s v="report-statistics-006"/>
+        <s v="report-statistics-007"/>
+        <s v="report-statistics-008"/>
+        <s v="report-statistics-009"/>
+        <s v="report-statistics-010"/>
+        <s v="report-statistics-011"/>
+        <s v="report-statistics-012"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="功能" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
@@ -1761,13 +2156,38 @@
       </sharedItems>
     </cacheField>
     <cacheField name="测试目标/步骤" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="12">
+        <s v="页面初始化"/>
+        <s v="选择时间：选择开始时间"/>
+        <s v="选择时间：选择结束时间"/>
+        <s v="统计参数：选择域下拉列表：初始化"/>
+        <s v="统计参数：选择域下拉列表：切换选中域"/>
+        <s v="点击应用（返回数据为空）"/>
+        <s v="点击应用（返回数据不为空）"/>
+        <s v="选择域下拉列表：初始化"/>
+        <s v="亮灯率统计面板"/>
+        <s v="故障率统计面板"/>
+        <s v="选择域下拉列表：切换选中域"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="期望" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="11">
+        <s v="正常显示"/>
+        <s v="弹出时间选择面板，选择开始时间"/>
+        <s v="弹出时间选择面板，选择结束时间"/>
+        <s v="显示当前所有可选域的下拉列表"/>
+        <s v="正确切换选中域"/>
+        <s v="显示默认图表并全局提示返回数据为空"/>
+        <s v="根据返回数据更新图表"/>
+        <s v="显示选中域的设备数据及亮灯率饼状图"/>
+        <s v="显示选中域的设备数据及故障率饼状图"/>
+        <s v="根据返回数据更新两个面板的数据及饼状图"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="测试结果" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsBlank="1" containsNonDate="0" count="4">
         <m/>
         <s v="Skip" u="1"/>
         <s v="Failed" u="1"/>
@@ -1775,555 +2195,145 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bug#" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="66">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="13">
   <r>
-    <s v="report-statistics-001"/>
-    <x v="0"/>
-    <s v="页面初始化"/>
-    <s v="正常显示"/>
-    <x v="0"/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-002"/>
-    <x v="0"/>
-    <s v="选择时间"/>
-    <s v="选择开始时间，选择结束时间"/>
-    <x v="0"/>
-    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-003"/>
-    <x v="0"/>
-    <s v="选择统计参数下拉框"/>
-    <s v="显示 &quot;按域” 和 &quot;按设备“下拉列表"/>
-    <x v="0"/>
-    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-004"/>
-    <x v="0"/>
-    <s v="选择统计参数：按域"/>
-    <s v="域下拉框显示当前所有的可选域"/>
-    <x v="0"/>
-    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-005"/>
-    <x v="0"/>
-    <s v="选择统计参数：按域：选择域"/>
-    <s v="选中并显示所选域"/>
-    <x v="0"/>
-    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-006"/>
-    <x v="0"/>
-    <s v="选择统计参数：按设备"/>
-    <s v="显示选择设备输入框"/>
-    <x v="0"/>
-    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-007"/>
-    <x v="0"/>
-    <s v="选择统计参数：按设备：选择设备面板"/>
-    <s v="显示可选域下拉框，以及默认选中域的设备列表"/>
-    <x v="0"/>
-    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-008"/>
-    <x v="0"/>
-    <s v="选择统计参数：按设备：选择设备面板：选择域"/>
-    <s v="显示所选域的设备列表"/>
-    <x v="0"/>
-    <m/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-009"/>
-    <x v="0"/>
-    <s v="选择统计参数：按设备：选择设备面板：搜索设备"/>
-    <s v="显示被搜索的设备"/>
-    <x v="0"/>
-    <m/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-010"/>
-    <x v="0"/>
-    <s v="选择统计参数：按设备：选择设备面板：设备列表分页"/>
-    <s v="点击跳转至该分页设备列表"/>
-    <x v="0"/>
-    <m/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-011"/>
-    <x v="0"/>
-    <s v="选择统计参数：按设备：选择设备面板：选中设备"/>
-    <s v="选中单一设备，设备输入框显示该设备"/>
-    <x v="0"/>
-    <m/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-012"/>
-    <x v="0"/>
-    <s v="点击应用，显示图表（数据为空）"/>
-    <s v="正常显示图表坐标"/>
-    <x v="0"/>
-    <m/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <s v="report-statistics-013"/>
-    <x v="0"/>
-    <s v="点击应用，显示图表（有返回数据）"/>
-    <s v="根据返回数据更新图表。"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-014"/>
-    <x v="1"/>
-    <s v="页面初始化"/>
-    <s v="正常显示"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-015"/>
-    <x v="1"/>
-    <s v="选择域下拉框"/>
-    <s v="显示可选域列表，"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-016"/>
-    <x v="1"/>
-    <s v="亮灯率统计面板"/>
-    <s v="正确显示数据及亮灯率饼状图"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-017"/>
-    <x v="1"/>
-    <s v="故障率统计面板"/>
-    <s v="正确显示数据及故障率饼状图"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <s v="report-statistics-018"/>
-    <x v="1"/>
-    <s v="切换选中域"/>
-    <s v="根据返回数据更新图表（暂无API)"/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
+    <x v="12"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" createdVersion="6" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:L7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="12">
         <item sd="0" m="1" x="3"/>
@@ -2340,8 +2350,39 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item m="1" x="2"/>
@@ -2351,7 +2392,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -2384,51 +2430,10 @@
   <dataFields count="1">
     <dataField name="计数项:测试编号" fld="0" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2686,19 +2691,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -2707,28 +2712,28 @@
     <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="18" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -2742,13 +2747,13 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -2762,17 +2767,17 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -2788,17 +2793,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
         <v>43187</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="16" t="s">
@@ -2808,76 +2813,92 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="6" spans="1:4">
+      <c r="A6" s="10">
         <v>43189</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10">
+        <v>43194</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="10">
+        <v>43194</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2885,21 +2906,22 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -2910,10 +2932,9 @@
     <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="15.625"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="5.25" customWidth="1"/>
     <col min="15" max="15" width="5.125"/>
     <col min="16" max="16" width="10.875" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
@@ -2923,637 +2944,544 @@
     <col min="21" max="21" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="9">
-        <v>13</v>
-      </c>
-      <c r="L5" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="8" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="9">
-        <v>5</v>
-      </c>
-      <c r="L6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="9">
-        <v>18</v>
-      </c>
-      <c r="L7" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Skip"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>首页!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1533</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E8 E9:E1527">
+      <formula1>首页!$F$2:$F$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>